--- a/biology/Zoologie/Cephalochetus/Cephalochetus.xlsx
+++ b/biology/Zoologie/Cephalochetus/Cephalochetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalochetus[2] est un genre de coléoptères de la famille des Staphylinidae, de la sous-famille des Paederinae, de la tribu des Lathrobiini et de la sous-tribu des Echiasterina. Ces espèces se rencontrent dans l'Est de l'Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalochetus est un genre de coléoptères de la famille des Staphylinidae, de la sous-famille des Paederinae, de la tribu des Lathrobiini et de la sous-tribu des Echiasterina. Ces espèces se rencontrent dans l'Est de l'Asie.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cephalochetus basilewskyi
 Cephalochetus comoranus Lecoq 1996
 Cephalochetus congoensis Bernhauer 1929
 Cephalochetus curtipennis
-Cephalochetus elegans[2]
+Cephalochetus elegans
 Cephalochetus formosae
 Cephalochetus fusciceps (Cameron, 1931)
 Cephalochetus indicus (Kraatz, 1859)
@@ -553,7 +567,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la + de) G. Kraatz, « Die Staphylinen-Fauna von Ostindien, insbesondere der Insel Ceylan », Archiv für Naturgeschichte, Berlin, Nicolaische Verlags-Buchhandlung, vol. 25, no 1,‎ 1859, p. 1-193 (ISSN 0365-6136, OCLC 1481989, lire en ligne)</t>
         </is>
